--- a/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
+++ b/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE333D3-C666-459A-BF56-A137532391B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7523B2B0-0604-4E5C-8860-F513B6D83725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="购销明细信息" sheetId="1" r:id="rId1"/>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">${item.isPurchased} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -464,6 +460,10 @@
   </si>
   <si>
     <t xml:space="preserve">销售类型：${order.salesCode} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.isPurchased ? "外购" : "自制"} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -774,6 +774,9 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -807,9 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1126,44 +1126,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>40</v>
@@ -1180,21 +1180,21 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="31" t="s">
         <v>38</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>4</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="5" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -1293,10 +1293,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>57</v>
@@ -1311,16 +1311,16 @@
         <v>54</v>
       </c>
       <c r="K5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="M5" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="N5" s="32" t="s">
         <v>78</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>79</v>
       </c>
       <c r="O5" s="32" t="s">
         <v>54</v>
@@ -1348,46 +1348,46 @@
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="28"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="35"/>
+      <c r="A8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="36"/>
       <c r="C8" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -1642,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:H9"/>
     </sheetView>
   </sheetViews>
@@ -1659,15 +1659,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
@@ -1677,7 +1677,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="9"/>
     </row>
@@ -1692,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>46</v>
@@ -1728,28 +1728,28 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
+      <c r="A7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1779,19 +1779,19 @@
     </row>
     <row r="9" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>72</v>
+      <c r="E9" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>50</v>
@@ -1814,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
+++ b/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7523B2B0-0604-4E5C-8860-F513B6D83725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E556CB-805A-4EDF-815F-0B5F8DE0FCF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>购销明细信息</t>
   </si>
@@ -464,6 +464,10 @@
   </si>
   <si>
     <t xml:space="preserve">${item.isPurchased ? "外购" : "自制"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.materialGroupName} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1096,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1300,7 @@
         <v>81</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>57</v>

--- a/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
+++ b/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E556CB-805A-4EDF-815F-0B5F8DE0FCF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB9FE1-4071-4387-878F-483A462F44A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">${item.itemStatus} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>B2C备注</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -468,6 +464,10 @@
   </si>
   <si>
     <t xml:space="preserve">${item.materialGroupName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.itemStatus.equals("00") ? "草稿" : (item.itemStatus.equals("10") ? "下推SAP" : (item.itemStatus.equals("Z2") ? "取消" : item.itemStatus))} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" activeCellId="1" sqref="D5 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1164,10 +1164,10 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>40</v>
@@ -1184,7 +1184,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>4</v>
@@ -1267,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>6</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="5" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -1294,49 +1294,49 @@
         <v>47</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>82</v>
-      </c>
       <c r="G5" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="M5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="N5" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="32" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>51</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>52</v>
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
@@ -1363,11 +1363,11 @@
     </row>
     <row r="8" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -1681,7 +1681,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="9"/>
     </row>
@@ -1696,7 +1696,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>46</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -1783,28 +1783,28 @@
     </row>
     <row r="9" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="E9" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
+++ b/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB9FE1-4071-4387-878F-483A462F44A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312E532-20A7-40CA-85AE-706D5F1F21B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,15 +459,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">${item.isPurchased ? "外购" : "自制"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">${item.materialGroupName} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">${item.itemStatus.equals("00") ? "草稿" : (item.itemStatus.equals("10") ? "下推SAP" : (item.itemStatus.equals("Z2") ? "取消" : item.itemStatus))} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.isPurchased ? "自制" : "外购"} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" activeCellId="1" sqref="D5 F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1294,13 +1294,13 @@
         <v>47</v>
       </c>
       <c r="D5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>81</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>56</v>

--- a/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
+++ b/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312E532-20A7-40CA-85AE-706D5F1F21B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247FE14C-56A9-48C6-A15F-5C21919D1E83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,18 +407,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">${order.isTerm1.equals("1") ? "是" : "否"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${order.isTerm2.equals("1") ? "是" : "否"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${order.isTerm3.equals("1") ? "是" : "否"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">${item.comments} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -468,6 +456,18 @@
   </si>
   <si>
     <t xml:space="preserve">${item.isPurchased ? "自制" : "外购"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.isTerm1 == 1 ? "是" : "否"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.isTerm2 == 1 ? "是" : "否"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.isTerm3 == 1 ? "是" : "否"} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1164,10 +1164,10 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>40</v>
@@ -1184,7 +1184,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
     </row>
     <row r="5" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -1294,13 +1294,13 @@
         <v>47</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>56</v>
@@ -1315,16 +1315,16 @@
         <v>53</v>
       </c>
       <c r="K5" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="O5" s="32" t="s">
         <v>53</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="26" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1681,7 +1681,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="9"/>
     </row>
@@ -1795,7 +1795,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>49</v>
@@ -1818,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
+++ b/steigenberger/src/main/resources/orderitemsandcharacterics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247FE14C-56A9-48C6-A15F-5C21919D1E83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CAC630-ED37-447E-B359-B1867D9B7DAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">购销明细信息!$A$4:$G$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>购销明细信息</t>
   </si>
@@ -233,241 +233,260 @@
     <t>值代码</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>颜色备注</t>
+  </si>
+  <si>
+    <t>物料属性</t>
+  </si>
+  <si>
+    <t>行项目类别</t>
+  </si>
+  <si>
+    <t>需求计划</t>
+  </si>
+  <si>
+    <t>要求发货时间</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>生产周期</t>
+  </si>
+  <si>
+    <t>工厂最早交货时间</t>
+  </si>
+  <si>
+    <t>生产开始时间</t>
+  </si>
+  <si>
+    <t>入库时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签约单位：${order.customerName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">店名：${order.shopName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">客户经理：${order.salesName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合同号：${order.contractNumber} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理电话：${order.salesTel}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同管理员（支持经理）：${order.contractManager}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区：${order.officeName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水号：${order.sequenceNumber}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输方式：${order.transferTypeName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货地址：${order.deliveryAddress[0].address}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市区：${order.deliveryAddress[0].provinceName}${order.deliveryAddress[0].cityName}${order.deliveryAddress[0].districtName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心：${order.groupName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.materialName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.materialCode} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2C备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.b2cComments} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.specialComments} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.colorComments} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购周期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.period} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.itemRequirementPlan} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.itemCategory} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.quantity} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜体控制阀件是否甲供</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.contractNumber} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.customerName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.mosaicImage}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商标要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${config.optional ? "可选项" : "必填项"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${config.keyName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${config.valueName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${config.valueCode} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.comments} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">生成日期:${now} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.rowNum} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">要求发货时间：${utils:dateFmt(order.earliestDeliveryDate,"yyyy-MM-dd")} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${utils:dateFmt(item.deliveryDate,"yyyy-MM-dd")} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${utils:dateFmt(item.produceDate,"yyyy-MM-dd")} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${utils:dateFmt(item.shippDate,"yyyy-MM-dd")} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${utils:dateFmt(item.onStoreDate,"yyyy-MM-dd")} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">录入日期：${utils:dateFmt(order.createTime,"yyyy-MM-dd")} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">销售类型：${order.salesCode} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.materialGroupName} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.itemStatus.equals("00") ? "草稿" : (item.itemStatus.equals("10") ? "下推SAP" : (item.itemStatus.equals("Z2") ? "取消" : item.itemStatus))} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.isPurchased ? "自制" : "外购"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.isTerm1 == 1 ? "是" : "否"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.isTerm2 == 1 ? "是" : "否"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${order.isTerm3 == 1 ? "是" : "否"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>木包装要求</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>铭牌要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电路图要求</t>
-  </si>
-  <si>
-    <t>颜色备注</t>
-  </si>
-  <si>
-    <t>物料属性</t>
-  </si>
-  <si>
-    <t>行项目类别</t>
-  </si>
-  <si>
-    <t>需求计划</t>
-  </si>
-  <si>
-    <t>要求发货时间</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>生产周期</t>
-  </si>
-  <si>
-    <t>工厂最早交货时间</t>
-  </si>
-  <si>
-    <t>生产开始时间</t>
-  </si>
-  <si>
-    <t>入库时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签约单位：${order.customerName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">店名：${order.shopName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">客户经理：${order.salesName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">合同号：${order.contractNumber} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户经理电话：${order.salesTel}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同管理员（支持经理）：${order.contractManager}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大区：${order.officeName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水号：${order.sequenceNumber}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输方式：${order.transferTypeName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>到货地址：${order.deliveryAddress[0].address}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市区：${order.deliveryAddress[0].provinceName}${order.deliveryAddress[0].cityName}${order.deliveryAddress[0].districtName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心：${order.groupName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.materialName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.materialCode} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2C备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.b2cComments} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.specialComments} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.colorComments} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购周期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.period} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.itemRequirementPlan} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.itemCategory} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.quantity} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>柜体控制阀件是否甲供</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${order.contractNumber} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${order.customerName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.mosaicImage}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商标要求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${config.optional ? "可选项" : "必填项"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${config.keyName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${config.valueName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${config.valueCode} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.comments} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">生成日期:${now} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.rowNum} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">要求发货时间：${utils:dateFmt(order.earliestDeliveryDate,"yyyy-MM-dd")} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${utils:dateFmt(item.deliveryDate,"yyyy-MM-dd")} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${utils:dateFmt(item.produceDate,"yyyy-MM-dd")} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${utils:dateFmt(item.shippDate,"yyyy-MM-dd")} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${utils:dateFmt(item.onStoreDate,"yyyy-MM-dd")} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">录入日期：${utils:dateFmt(order.createTime,"yyyy-MM-dd")} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">销售类型：${order.salesCode} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.materialGroupName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.itemStatus.equals("00") ? "草稿" : (item.itemStatus.equals("10") ? "下推SAP" : (item.itemStatus.equals("Z2") ? "取消" : item.itemStatus))} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.isPurchased ? "自制" : "外购"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${order.isTerm1 == 1 ? "是" : "否"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${order.isTerm2 == 1 ? "是" : "否"} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${order.isTerm3 == 1 ? "是" : "否"} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.requestBrand} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.requestPackage} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.requestNameplate} </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.requestCircult} </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1120,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1153,30 +1172,30 @@
     </row>
     <row r="2" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
@@ -1184,35 +1203,35 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -1220,7 +1239,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,49 +1253,49 @@
         <v>3</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>33</v>
-      </c>
       <c r="O4" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
@@ -1285,58 +1304,58 @@
     </row>
     <row r="5" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="M5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="Q5" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>50</v>
-      </c>
       <c r="R5" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
@@ -1363,11 +1382,11 @@
     </row>
     <row r="8" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -1379,7 +1398,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1391,7 +1410,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -1647,7 +1666,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1681,7 +1700,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H2" s="9"/>
     </row>
@@ -1696,33 +1715,41 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1745,7 +1772,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -1769,13 +1796,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>6</v>
@@ -1783,28 +1810,28 @@
     </row>
     <row r="9" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="F9" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1845,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1826,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,7 +1861,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1872,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>